--- a/data/sample/accuracy_assesment/confidence_rating.xlsx
+++ b/data/sample/accuracy_assesment/confidence_rating.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mapping-wetlands\data\sample\accuracy_assesment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Documents\mapping-wetlands\data\sample\accuracy_assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE50EF82-B7B5-4C26-B53B-F725B2DAD98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DB9FB1-33B3-41A9-9100-A87DD6C8632D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="600" windowWidth="22080" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="-90" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>algae</t>
+  </si>
+  <si>
+    <t>human induced</t>
   </si>
 </sst>
 </file>
@@ -394,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +416,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -427,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -465,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,15 +552,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -556,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -564,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -572,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -580,15 +592,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -596,15 +611,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -612,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -620,47 +635,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -668,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -676,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -684,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -692,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -700,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -708,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -716,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -724,15 +745,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -740,15 +764,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -756,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -764,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -772,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -780,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -788,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -796,23 +820,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -820,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -828,31 +855,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -860,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -868,15 +895,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -884,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -892,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -900,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -908,15 +935,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1084,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1124,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1148,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1180,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1209,7 +1236,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1260,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1292,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1436,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1425,7 +1452,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1449,7 +1476,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,7 +1484,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1580,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1588,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1596,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1620,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1644,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1732,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1764,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1780,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +1804,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -1836,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -1844,7 +1871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -1852,7 +1879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -1860,15 +1887,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -1876,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -1884,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -1892,7 +1919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -1900,7 +1927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -1908,7 +1935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -1916,15 +1943,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -1932,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -1940,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -2001,7 +2031,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,15 +2063,15 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/sample/accuracy_assesment/confidence_rating.xlsx
+++ b/data/sample/accuracy_assesment/confidence_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Documents\mapping-wetlands\data\sample\accuracy_assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DB9FB1-33B3-41A9-9100-A87DD6C8632D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4FC73D-C5AD-43DF-8353-AD744FEA1C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="-90" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9870" yWindow="-345" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>algae</t>
-  </si>
-  <si>
-    <t>human induced</t>
   </si>
 </sst>
 </file>
@@ -401,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -450,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -461,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -509,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,7 +522,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,7 +586,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +683,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +726,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +745,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,7 +788,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +796,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +895,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,7 +935,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,7 +951,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +975,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +991,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1007,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1015,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1023,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1047,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1055,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1071,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1103,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +1111,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1119,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1135,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1159,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1175,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1199,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1207,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1215,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1223,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1319,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1327,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1367,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1383,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1399,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1407,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1415,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1431,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1447,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1471,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1495,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1503,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1527,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1543,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1551,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1559,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1567,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1575,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1639,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1655,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1663,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1671,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1679,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1687,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1703,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1711,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1719,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1727,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1751,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1791,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1799,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1815,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1823,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1831,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1839,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,7 +1847,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,7 +1855,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1871,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,7 +1879,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,6 +1921,9 @@
       <c r="B185" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -1926,13 +1932,19 @@
       <c r="B186" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,7 +1952,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,7 +1974,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,7 +1998,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +2006,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +2014,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2030,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2038,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,9 +2097,41 @@
         <v>3</v>
       </c>
     </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" sqref="E1:E4 B2:B205" xr:uid="{7CF5DF4C-5976-4A86-B46A-B3E9FF75E160}">
+    <dataValidation type="list" sqref="E1:E4 B2:B209" xr:uid="{7CF5DF4C-5976-4A86-B46A-B3E9FF75E160}">
       <formula1>$E$2:$E$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/sample/accuracy_assesment/confidence_rating.xlsx
+++ b/data/sample/accuracy_assesment/confidence_rating.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Documents\mapping-wetlands\data\sample\accuracy_assesment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mapping-wetlands\data\sample\accuracy_assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4FC73D-C5AD-43DF-8353-AD744FEA1C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2D9E79-1B24-4510-9A90-911B4C205CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="-345" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32370" yWindow="30" windowWidth="6150" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>algae</t>
+  </si>
+  <si>
+    <t>waterlog</t>
   </si>
 </sst>
 </file>
@@ -400,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,6 +551,9 @@
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -562,7 +568,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +576,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,7 +611,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +700,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +813,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +821,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,7 +856,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,7 +864,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -887,7 +896,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,7 +920,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,7 +928,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,7 +936,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,7 +968,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +976,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1008,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1048,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1104,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1152,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1176,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1200,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1240,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1280,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,10 +1288,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1320,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1344,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1352,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1360,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1368,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1400,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1528,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1616,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1624,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1640,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1704,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1752,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1768,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1784,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,6 +1898,9 @@
       <c r="B181" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -1903,7 +1915,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,10 +1942,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,7 +1991,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,7 +1999,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2031,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2063,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2071,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2103,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2127,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
